--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stock_data" sheetId="1" state="visible" r:id="rId2"/>
@@ -156,16 +156,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>29160</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -178,8 +178,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8494200" cy="4572000"/>
+          <a:off x="846000" y="218880"/>
+          <a:ext cx="8487360" cy="4571640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -215,11 +215,11 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -562,11 +562,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
